--- a/ESC2018_GF.xlsx
+++ b/ESC2018_GF.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgoldenberg/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Faddli-Lindra-Wibowo/MyProject/DataonGithub/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB583BC6-5CFC-774D-91DD-6FFA6471FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined result" sheetId="1" r:id="rId1"/>
     <sheet name="Jury" sheetId="2" r:id="rId2"/>
     <sheet name="Televote" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -181,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,7 +577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -591,7 +592,7 @@
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:47" ht="22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4459,7 +4460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4474,7 +4475,7 @@
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:46" ht="22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -8260,7 +8261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AT28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8275,7 +8276,7 @@
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:46" ht="22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
